--- a/Wyniki-kolokwium1.xlsx
+++ b/Wyniki-kolokwium1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/84149225945ae460/_51__UWr/UWr-Algorytmy-i-Struktury-danych/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1943" documentId="8_{303F252C-37C0-4989-BB37-AB3B9F2CB3F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5389EFCA-C78E-6442-B903-0392D318E62D}"/>
+  <xr:revisionPtr revIDLastSave="1944" documentId="8_{303F252C-37C0-4989-BB37-AB3B9F2CB3F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{795FBF5C-34CE-F44C-BB98-4A24954E6821}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="500" windowWidth="38400" windowHeight="21100" tabRatio="500" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14991,13 +14991,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{489F6B4D-5EA1-4E6A-9A40-820515473DCB}">
-  <dimension ref="A1:AM10"/>
+  <dimension ref="A1:AN10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G13" sqref="G13"/>
+      <selection pane="bottomRight" activeCell="AN4" sqref="AN4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -15011,7 +15011,7 @@
     <col min="23" max="39" width="4.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -15130,7 +15130,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:39" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:40" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
         <v>71</v>
       </c>
@@ -15251,7 +15251,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.15">
       <c r="D3" s="1" t="s">
         <v>141</v>
       </c>
@@ -15361,8 +15361,12 @@
       <c r="AM3" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.15">
+      <c r="AN3">
+        <f>SUM(F2:AM2)</f>
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:40" x14ac:dyDescent="0.15">
       <c r="D4" s="1" t="s">
         <v>112</v>
       </c>
@@ -15374,7 +15378,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.15">
       <c r="D5" s="1">
         <v>0</v>
       </c>
@@ -15382,7 +15386,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B6" s="9">
         <f>D6/E$3</f>
         <v>0.44117647058823528</v>
@@ -15394,7 +15398,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B7" s="9">
         <f t="shared" ref="B7:B10" si="1">D7/E$3</f>
         <v>0.52941176470588236</v>
@@ -15406,7 +15410,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B8" s="9">
         <f t="shared" si="1"/>
         <v>0.6470588235294118</v>
@@ -15418,7 +15422,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B9" s="9">
         <f t="shared" si="1"/>
         <v>0.76470588235294112</v>
@@ -15430,7 +15434,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B10" s="9">
         <f t="shared" si="1"/>
         <v>0.88235294117647056</v>
